--- a/data/case1/2/Qlm2_1.xlsx
+++ b/data/case1/2/Qlm2_1.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.095650205366865748</v>
+        <v>-0.11186715098494915</v>
       </c>
       <c r="B1" s="0">
-        <v>0.095356743160081692</v>
+        <v>0.1115153948052523</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.073252372997827386</v>
+        <v>-0.10767684022488488</v>
       </c>
       <c r="B2" s="0">
-        <v>0.07212621401320618</v>
+        <v>0.10658186810991488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.02241213197804548</v>
+        <v>-0.05686815787450783</v>
       </c>
       <c r="B3" s="0">
-        <v>0.022131410954521868</v>
+        <v>0.056611591007044382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.014131411002194838</v>
+        <v>-0.048611591081366257</v>
       </c>
       <c r="B4" s="0">
-        <v>0.013886259406099555</v>
+        <v>0.04839356125669525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.010886259426878375</v>
+        <v>-0.045393561293516349</v>
       </c>
       <c r="B5" s="0">
-        <v>0.010068384040050837</v>
+        <v>0.044673519268519257</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.0030519630663672359</v>
+        <v>-0.01607876089291338</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.0030624950056523659</v>
+        <v>0.015871644207511082</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.013062494946869396</v>
+        <v>-0.005871644304517698</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.013065113657253935</v>
+        <v>0.0058335858539777519</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0091060777661020609</v>
+        <v>0.0041664140486612489</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.0092013531209329535</v>
+        <v>-0.0042092719255744093</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.011201353107693546</v>
+        <v>0.0062092718930308877</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.01127503708577926</v>
+        <v>-0.0062376122326983641</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.013275037073956497</v>
+        <v>0.008237612201661193</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.013278703199450348</v>
+        <v>-0.0082374381282193099</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.016278703182348586</v>
+        <v>0.011237438089334972</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.016286050968835397</v>
+        <v>-0.011239089787101975</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.019786050949316625</v>
+        <v>0.014739089744541634</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.019848609344796486</v>
+        <v>-0.014759328885765477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.01408181721815982</v>
+        <v>0.018259328846951028</v>
       </c>
       <c r="B13" s="0">
-        <v>0.014033513065527359</v>
+        <v>-0.018274621415521608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0087086162046459137</v>
+        <v>0.026274621342548876</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0086878328893220669</v>
+        <v>-0.026302509604412272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080518048541993181</v>
+        <v>0.027302509589359758</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080337371488869991</v>
+        <v>-0.027339829501100255</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060337371584955335</v>
+        <v>0.029339829481106694</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060034186379627208</v>
+        <v>-0.029500573087374526</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040034186481570089</v>
+        <v>0.031500573073594218</v>
       </c>
       <c r="B17" s="0">
-        <v>0.003999999978750779</v>
+        <v>-0.031570077527657503</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016104370195403561</v>
+        <v>0.0021614453708416193</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091635240094604</v>
+        <v>-0.0022200008790633774</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091635262593048</v>
+        <v>0.0062200008461843481</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016740109291657</v>
+        <v>-0.0066467826266807251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080167401334154675</v>
+        <v>-0.0080163249084321819</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080057030773375004</v>
+        <v>0.0080056330322637592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040057031017033395</v>
+        <v>-0.0040056330647235683</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999754076754</v>
+        <v>0.0039999999673012709</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.04571408206056482</v>
+        <v>-0.045713710275451902</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045500180905872156</v>
+        <v>0.045500120793603216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040500180938459529</v>
+        <v>-0.040500120844430221</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099248656777498</v>
+        <v>0.040099150623850832</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099248774299916</v>
+        <v>-0.020099150798837506</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999880847774</v>
+        <v>0.019999999822530867</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.011120347121996943</v>
+        <v>-0.026594758409148156</v>
       </c>
       <c r="B25" s="0">
-        <v>0.011038501963335889</v>
+        <v>0.026579944039099246</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0085385019818140506</v>
+        <v>-0.024079944076659032</v>
       </c>
       <c r="B26" s="0">
-        <v>0.0084353063408535434</v>
+        <v>0.024064882623966</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059353063595235511</v>
+        <v>-0.021564882662111984</v>
       </c>
       <c r="B27" s="0">
-        <v>0.0053380478712723445</v>
+        <v>0.021486315436530123</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0033380478876532393</v>
+        <v>-0.019486315473832505</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0029442611287899823</v>
+        <v>0.019445694043857209</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081353597788067944</v>
+        <v>-0.012445694123027984</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081169528144650727</v>
+        <v>0.012442131628975339</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021169528480451838</v>
+        <v>0.04755786786994376</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021023107200356606</v>
+        <v>-0.047709325463389352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014023107249899525</v>
+        <v>0.054709325390589925</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001236528475403</v>
+        <v>-0.054794164137119239</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040012365946680006</v>
+        <v>0.022158549050740106</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999663411501</v>
+        <v>-0.02218949294190864</v>
       </c>
     </row>
   </sheetData>
